--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>us-core-observation-adi-documentation</t>
+  </si>
+  <si>
+    <t>US Core Observation ADI Documentation Profile</t>
+  </si>
+  <si>
+    <t>null#observation-adi-documentation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#42348-3</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -178,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +243,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -62,7 +62,7 @@
     <t>LOINC#42348-3</t>
   </si>
   <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+    <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
     <t>CodeableConceptĵ</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Profile</t>
   </si>
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>LOINC#42348-3</t>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1115.25 (extensible)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>us-core-observation-adi-presence</t>
+  </si>
+  <si>
+    <t>US Core Observation ADI Presence Profile</t>
+  </si>
+  <si>
+    <t>LOINC#45473-6</t>
   </si>
 </sst>
 </file>
@@ -202,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -257,10 +266,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -275,6 +284,41 @@
         <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Profile</t>
   </si>
@@ -71,13 +71,19 @@
     <t>optional</t>
   </si>
   <si>
+    <t>us-core-observation-adi-documentation2</t>
+  </si>
+  <si>
+    <t>US Core Observation ADI Documentation Profile2</t>
+  </si>
+  <si>
+    <t>LOINC#45473-6</t>
+  </si>
+  <si>
     <t>us-core-observation-adi-presence</t>
   </si>
   <si>
     <t>US Core Observation ADI Presence Profile</t>
-  </si>
-  <si>
-    <t>LOINC#45473-6</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,6 +328,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Profile</t>
   </si>
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1115.25 (extensible)</t>
+    <t>LOINC#45473-6</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
@@ -69,21 +69,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>us-core-observation-adi-documentation2</t>
-  </si>
-  <si>
-    <t>US Core Observation ADI Documentation Profile2</t>
-  </si>
-  <si>
-    <t>LOINC#45473-6</t>
-  </si>
-  <si>
-    <t>us-core-observation-adi-presence</t>
-  </si>
-  <si>
-    <t>US Core Observation ADI Presence Profile</t>
   </si>
 </sst>
 </file>
@@ -217,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -272,10 +257,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -290,76 +275,6 @@
         <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
         <v>14</v>
       </c>
     </row>
